--- a/CMPG323-Project-5-34292748/Connected Office Dataset.xlsx
+++ b/CMPG323-Project-5-34292748/Connected Office Dataset.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25830"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIVEN MNISI\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEDF39-7016-47C3-8EAB-6811B8EA5CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B38360C-E577-4950-B646-28DBAAA11417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone" sheetId="1" r:id="rId1"/>
@@ -327,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,7 +347,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -371,12 +365,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -387,6 +396,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -438,815 +460,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1257,59 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2BF3FD8-853F-4267-A0DC-E347AC13A28B}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="19" tableBorderDxfId="20">
-  <autoFilter ref="A1:C10" xr:uid="{E2BF3FD8-853F-4267-A0DC-E347AC13A28B}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5EB91E09-649E-441D-BB52-AF9376A5BE9B}" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{39172EEF-3501-4F99-838C-113E3FCF9395}" name="ZoneName" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{28C5A355-AAD5-4FA8-838D-D70CC1050043}" name="ZoneDescription" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1A80C62-F84A-4ECB-AA80-3F5F82F0853F}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="21" dataDxfId="22" tableBorderDxfId="30">
-  <autoFilter ref="A1:G10" xr:uid="{E1A80C62-F84A-4ECB-AA80-3F5F82F0853F}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{036E04C7-22D5-429A-8D87-6E3C250A8B82}" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{B177762B-63EB-4AE8-AA30-54CCE632CC00}" name="Device Name" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9F3DACF7-AC47-46AF-A5C3-F7B693AD6D97}" name="Category ID" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{F9183C09-7775-415C-8E7E-B0756C3315BB}" name="Zone ID" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{B31D4003-7FDD-4AF4-9DE7-433CD9C5DF0F}" name="Status" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{A6527BC7-A2D4-4766-BF21-667CFB80F7A8}" name="Is Active" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{8419D121-426B-41B4-BF61-879483647037}" name="Date Installe" dataDxfId="23"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{77C27318-5B5F-417A-ADA7-6BCA053D96FF}" name="Table3" displayName="Table3" ref="A1:C8" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
-  <autoFilter ref="A1:C8" xr:uid="{77C27318-5B5F-417A-ADA7-6BCA053D96FF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{549FAB98-8948-4537-BC56-3FBE58C6E375}" name="ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4437EE1F-2C04-4457-9F8E-22344F9B2484}" name="CategoryName" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{1F534062-A28C-4A07-B6E3-78B8D810F4CC}" name="CategoryDescription" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90DE1087-7D91-4381-8B3E-0C203AD349BE}" name="Table4" displayName="Table4" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="A1:D6" xr:uid="{90DE1087-7D91-4381-8B3E-0C203AD349BE}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E66605D2-B79A-4FA2-BC27-3D0671E10946}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{763A4704-0165-4321-A2F3-FD22E8A2EB69}" name="Category ID" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6FDB4E7C-0E42-4CE0-A9D4-9BE615E456C7}" name="Sub Category Name" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8B1A58E2-ABF0-46BF-A79C-7A98ECBBD68F}" name="Sub Category Description" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1615,128 +798,125 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1744,256 +924,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08439157-EFCA-47CB-8108-F53748A39E5E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="12">
         <v>43855</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="5" t="b">
+      <c r="F3" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="12">
         <v>44229</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="b">
+      <c r="F4" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="12">
         <v>44541</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="5" t="b">
+      <c r="F5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="12">
         <v>44641</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="5" t="b">
+      <c r="F6" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="12">
         <v>44641</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5" t="b">
+      <c r="F7" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="12">
         <v>44333</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5" t="b">
+      <c r="F8" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>44409</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="5" t="b">
+      <c r="F9" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="12">
         <v>44434</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="5" t="b">
+      <c r="F10" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="12">
         <v>44584</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2001,110 +1178,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31A4267-E70A-4E9F-9C7A-6414D4287864}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="7" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2112,120 +1284,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC903D32-5F9E-4786-89D6-996B7E75E220}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a090801-4708-43a5-9598-e4e2166c002c">
@@ -2234,6 +1394,15 @@
     <TaxCatchAll xmlns="4f4a8c57-659f-4264-b765-bd165a88863b" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2460,39 +1629,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B45281D-5D5A-4087-8014-4B4FA16E83A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
-    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A227DC9-4D6F-4F55-89DE-623758C7FB72}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6EE518-5DC1-4AFD-B150-7E05CC0C76D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7a090801-4708-43a5-9598-e4e2166c002c"/>
-    <ds:schemaRef ds:uri="4f4a8c57-659f-4264-b765-bd165a88863b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6EE518-5DC1-4AFD-B150-7E05CC0C76D1}"/>
 </file>